--- a/biology/Zoologie/Eotyrannus/Eotyrannus.xlsx
+++ b/biology/Zoologie/Eotyrannus/Eotyrannus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eotyrannus lengi
-Eotyrannus est un genre éteint de dinosaures théropodes de la famille des Stokesosauridae (famille non connue en PBDB) ayant vécu au cours du Crétacé inférieur. Son fossile a été découvert dans la formation du Wessex au sein du Wealdien sur la côte sud-ouest de l'île de Wight en Angleterre[1] ; il est 
+Eotyrannus est un genre éteint de dinosaures théropodes de la famille des Stokesosauridae (famille non connue en PBDB) ayant vécu au cours du Crétacé inférieur. Son fossile a été découvert dans la formation du Wessex au sein du Wealdien sur la côte sud-ouest de l'île de Wight en Angleterre ; il est 
 daté entre le Valanginien et le Barrémien, il y a environ entre 136 et 125 Ma (millions d'années).
-Ce genre est classé parmi les Tyrannosauroidea, un groupe qui fait partie des Coelurosauria. La seule espèce connue rattachée à ce genre est Eotyrannus lengi. Elle est connue par un squelette conservé à 40 %, composé d'un crâne et d'éléments du squelette axial et appendiculaire, provenant d'un individu juvénile ou subadulte. Le fossile reposait dans un lit argileux contenant des débris végétaux. Il a été décrit par Hutt et al. en 2001[1].
+Ce genre est classé parmi les Tyrannosauroidea, un groupe qui fait partie des Coelurosauria. La seule espèce connue rattachée à ce genre est Eotyrannus lengi. Elle est connue par un squelette conservé à 40 %, composé d'un crâne et d'éléments du squelette axial et appendiculaire, provenant d'un individu juvénile ou subadulte. Le fossile reposait dans un lit argileux contenant des débris végétaux. Il a été décrit par Hutt et al. en 2001.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre Eotyrannus peut signifier aussi bien « le tyran ancien » que « le tyran de l'aurore » et l'épithète spécifique, lengi, rend hommage au collectionneur amateur de fossiles Gavin Leng qui a découvert le squelette en 1996.
 </t>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eotyrannus possède les caractères généraux de Tyrannosauroidea suivants :
 des dents prémaxillaires avec les bords en dents de scie et une coupe transversale en forme de D ;
@@ -555,7 +571,7 @@
 des membres antérieurs allongés et bien développés ;
 la surface dorsale du crâne non-décorée.
 Ce théropode était un prédateur probable de dinosaures herbivores comme Hypsilophodon et Iguanodon.
-Il pesait 100 kg et mesurait 1,50 mètre de haut, pour 4 à 5 mètres de long[2] et était, comme la plupart des Theropoda, un carnassier bipède capable de courir.
+Il pesait 100 kg et mesurait 1,50 mètre de haut, pour 4 à 5 mètres de long et était, comme la plupart des Theropoda, un carnassier bipède capable de courir.
 </t>
         </is>
       </c>
@@ -584,14 +600,51 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La découverte d'Eotyrannus corrobore la théorie selon laquelle les Tyrannosauroidea anciens étaient graciles avec des membres antérieurs allongés et des mains préhensiles à trois doigts. La taille relativement importante de cet individu traduit soit une évolution précoce du groupe vers des grandes tailles, ou un développement indépendant d'Eotyrannus[3]. Le fait qu'il ait été trouvé en Europe remet en question l'origine présumée asiatique de ces animaux. Les autres genres, Stokesosaurus et Aviatyrannis, respectivement nord-américain et européen, plaident également pour une biogéographie plus complexe des Tyrannosauroidea[4].
-Classification
-L'analyse phylogénétique des Tyrannosauroidea, réalisée en 2016 par Stephen Brusatte et Thomas Carr, montre la position d'Eotyrannus au sein de cette super-famille, en groupe frère dans un clade où il est associé aux genres Stokesosaurus et Juratyrant[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La découverte d'Eotyrannus corrobore la théorie selon laquelle les Tyrannosauroidea anciens étaient graciles avec des membres antérieurs allongés et des mains préhensiles à trois doigts. La taille relativement importante de cet individu traduit soit une évolution précoce du groupe vers des grandes tailles, ou un développement indépendant d'Eotyrannus. Le fait qu'il ait été trouvé en Europe remet en question l'origine présumée asiatique de ces animaux. Les autres genres, Stokesosaurus et Aviatyrannis, respectivement nord-américain et européen, plaident également pour une biogéographie plus complexe des Tyrannosauroidea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eotyrannus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eotyrannus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique des Tyrannosauroidea, réalisée en 2016 par Stephen Brusatte et Thomas Carr, montre la position d'Eotyrannus au sein de cette super-famille, en groupe frère dans un clade où il est associé aux genres Stokesosaurus et Juratyrant :
 Cette phylogénie est différente de celle établie par Loewen et al. en 2013, où les genres Stokesosaurus et Juratyrant sont regroupés dans la famille des Proceratosauridae.
-Une autre analyse alternative datant de 2014, par Porfiri et al., en fait un Megaraptora de la famille des Megaraptoridae, proche du genre type Megaraptor[6].
-Dans une publication de mars 2020, il a été officiellement classé dans la famille des Stokesosauridae[7].
+Une autre analyse alternative datant de 2014, par Porfiri et al., en fait un Megaraptora de la famille des Megaraptoridae, proche du genre type Megaraptor.
+Dans une publication de mars 2020, il a été officiellement classé dans la famille des Stokesosauridae.
 </t>
         </is>
       </c>
